--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1245.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1245.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.930628970749438</v>
+        <v>1.210544466972351</v>
       </c>
       <c r="B1">
-        <v>3.279881701555891</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.484648328897154</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9964246211133472</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.8261312937988651</v>
+        <v>1.201682448387146</v>
       </c>
     </row>
   </sheetData>
